--- a/funciones/calculos.xlsx
+++ b/funciones/calculos.xlsx
@@ -982,7 +982,7 @@
   <dimension ref="B2:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1085,14 +1085,14 @@
         <v>100</v>
       </c>
       <c r="O4">
-        <v>2700</v>
+        <v>1350</v>
       </c>
       <c r="P4">
         <f>O4/60</f>
-        <v>45</v>
+        <v>22.5</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:16">
       <c r="B5">
         <f>B4*F5/F4</f>
         <v>18</v>
@@ -1140,26 +1140,34 @@
         <f t="shared" ref="N5:N13" si="5">SUM(N4-10)</f>
         <v>90</v>
       </c>
+      <c r="O5">
+        <f>O4*M5/M4</f>
+        <v>984.15</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P13" si="6">O5/60</f>
+        <v>16.4025</v>
+      </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:16">
       <c r="B6">
-        <f t="shared" ref="B6:B14" si="6">B5*F6/F5</f>
+        <f t="shared" ref="B6:B14" si="7">B5*F6/F5</f>
         <v>16</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C14" si="7">C5*F6/F5</f>
+        <f t="shared" ref="C6:C14" si="8">C5*F6/F5</f>
         <v>11.84</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D14" si="8">D5*F6/F5</f>
+        <f t="shared" ref="D6:D14" si="9">D5*F6/F5</f>
         <v>11.2</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E14" si="9">E5*F6/F5</f>
+        <f t="shared" ref="E6:E14" si="10">E5*F6/F5</f>
         <v>3315.2</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F12" si="10">SUM(F5-10)</f>
+        <f t="shared" ref="F6:F12" si="11">SUM(F5-10)</f>
         <v>80</v>
       </c>
       <c r="G6">
@@ -1189,26 +1197,34 @@
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O13" si="12">O5*M6/M5</f>
+        <v>691.2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="6"/>
+        <v>11.52</v>
+      </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:16">
       <c r="B7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="C7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.36</v>
       </c>
       <c r="D7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.8</v>
       </c>
       <c r="E7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2900.8</v>
       </c>
       <c r="F7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>70</v>
       </c>
       <c r="G7">
@@ -1238,26 +1254,34 @@
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
+      <c r="O7">
+        <f t="shared" si="12"/>
+        <v>463.05</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="6"/>
+        <v>7.7175</v>
+      </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:16">
       <c r="B8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="C8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.88</v>
       </c>
       <c r="D8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.4</v>
       </c>
       <c r="E8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2486.4</v>
       </c>
       <c r="F8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
       <c r="G8">
@@ -1287,26 +1311,34 @@
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
+      <c r="O8">
+        <f t="shared" si="12"/>
+        <v>291.6</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="6"/>
+        <v>4.86</v>
+      </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:16">
       <c r="B9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="C9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.4</v>
       </c>
       <c r="D9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="E9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2072</v>
       </c>
       <c r="F9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="G9">
@@ -1336,26 +1368,34 @@
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
+      <c r="O9">
+        <f t="shared" si="12"/>
+        <v>168.75</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="6"/>
+        <v>2.8125</v>
+      </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:16">
       <c r="B10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="C10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.92</v>
       </c>
       <c r="D10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.6</v>
       </c>
       <c r="E10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1657.6</v>
       </c>
       <c r="F10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="G10">
@@ -1385,26 +1425,34 @@
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
+      <c r="O10">
+        <f t="shared" si="12"/>
+        <v>86.4</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="6"/>
+        <v>1.44</v>
+      </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:16">
       <c r="B11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="C11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.44</v>
       </c>
       <c r="D11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.2</v>
       </c>
       <c r="E11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1243.2</v>
       </c>
       <c r="F11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="G11">
@@ -1434,26 +1482,34 @@
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
+      <c r="O11">
+        <f t="shared" si="12"/>
+        <v>36.45</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="6"/>
+        <v>0.6075</v>
+      </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:16">
       <c r="B12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="C12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.96</v>
       </c>
       <c r="D12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.8</v>
       </c>
       <c r="E12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>828.8</v>
       </c>
       <c r="F12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="G12">
@@ -1483,22 +1539,30 @@
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
+      <c r="O12">
+        <f t="shared" si="12"/>
+        <v>10.8</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="6"/>
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:16">
       <c r="B13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="C13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.48</v>
       </c>
       <c r="D13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.4</v>
       </c>
       <c r="E13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>414.4</v>
       </c>
       <c r="F13">
@@ -1531,6 +1595,14 @@
       <c r="N13">
         <f t="shared" si="5"/>
         <v>10</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="12"/>
+        <v>1.35</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="6"/>
+        <v>0.0225</v>
       </c>
     </row>
   </sheetData>
